--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2229.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2229.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277704801489439</v>
+        <v>0.9975135922431946</v>
       </c>
       <c r="B1">
-        <v>2.852737536681927</v>
+        <v>2.14692211151123</v>
       </c>
       <c r="C1">
-        <v>8.978121601005279</v>
+        <v>7.428821563720703</v>
       </c>
       <c r="D1">
-        <v>2.028441709611244</v>
+        <v>2.407320737838745</v>
       </c>
       <c r="E1">
-        <v>1.108491703250091</v>
+        <v>1.350888609886169</v>
       </c>
     </row>
   </sheetData>
